--- a/11_Head_count_topview/Head_count_topview_img/exe/yolov3_headcount_topview_img/yolov3_headcount_topview_img_summary.xlsx
+++ b/11_Head_count_topview/Head_count_topview_img/exe/yolov3_headcount_topview_img/yolov3_headcount_topview_img_summary.xlsx
@@ -777,7 +777,7 @@
         <v>416</v>
       </c>
       <c r="S5" t="n">
-        <v>3985</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="6" outlineLevel="1">
@@ -7189,7 +7189,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>188863</v>
+        <v>186542</v>
       </c>
     </row>
     <row r="114">
